--- a/IMPAcTB_Lung_Option1/IMPACTB_CFU_Op1_D14_Lung.xlsx
+++ b/IMPAcTB_Lung_Option1/IMPACTB_CFU_Op1_D14_Lung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/rstor-henao_lab/Pablo/CFU_Pipeline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/rstor-henao_lab/Pablo/CFU_Pipeline/IMPAcTB_Lung_Option1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B5D0AA-DAAC-CF42-8DD0-0E45A8E1257B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62353D4B-D2BA-794B-906F-AB3581882EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19420" yWindow="5420" windowWidth="35980" windowHeight="26920" xr2:uid="{F59B0FA3-6699-334F-9FE7-4CECDD57A869}"/>
+    <workbookView xWindow="10340" yWindow="1880" windowWidth="35980" windowHeight="26920" activeTab="1" xr2:uid="{F59B0FA3-6699-334F-9FE7-4CECDD57A869}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="2" r:id="rId1"/>
@@ -107,18 +107,12 @@
     <t>BCG</t>
   </si>
   <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>BCG+ID93</t>
   </si>
   <si>
     <t>ID93</t>
   </si>
   <si>
-    <t xml:space="preserve">Male </t>
-  </si>
-  <si>
     <t>sex</t>
   </si>
   <si>
@@ -126,6 +120,12 @@
   </si>
   <si>
     <t>FL</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>male</t>
   </si>
 </sst>
 </file>
@@ -187,10 +187,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -509,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2810B222-D20F-8B44-B4FD-974B94F13DA8}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88AD332-7195-634D-949D-2F0C3306A537}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,7 +592,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -624,13 +624,13 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>22</v>
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>15</v>
@@ -671,13 +671,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>22</v>
@@ -686,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>15</v>
@@ -718,13 +718,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>22</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>15</v>
@@ -765,13 +765,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>22</v>
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>15</v>
@@ -812,22 +812,22 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>15</v>
@@ -859,22 +859,22 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="3">
         <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>15</v>
@@ -906,22 +906,22 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>15</v>
@@ -953,22 +953,22 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>15</v>
@@ -1000,22 +1000,22 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>15</v>
@@ -1047,22 +1047,22 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3">
         <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>15</v>
@@ -1094,22 +1094,22 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>15</v>
@@ -1141,22 +1141,22 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="3">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>15</v>
@@ -1188,13 +1188,13 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>14</v>
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>15</v>
@@ -1235,13 +1235,13 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>14</v>
@@ -1250,7 +1250,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>15</v>
@@ -1282,13 +1282,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>14</v>
@@ -1297,7 +1297,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>15</v>
@@ -1329,13 +1329,13 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>14</v>
@@ -1344,7 +1344,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>15</v>
@@ -1376,13 +1376,13 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>22</v>
@@ -1391,7 +1391,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>15</v>
@@ -1423,13 +1423,13 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>22</v>
@@ -1438,7 +1438,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>15</v>
@@ -1470,22 +1470,22 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>15</v>
@@ -1517,22 +1517,22 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>15</v>
@@ -1564,22 +1564,22 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>15</v>
@@ -1611,22 +1611,22 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="3">
         <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>15</v>
@@ -1658,22 +1658,22 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>15</v>
@@ -1705,22 +1705,22 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="3">
         <v>2</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>15</v>
@@ -1752,22 +1752,22 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>15</v>
@@ -1799,22 +1799,22 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" s="3">
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>15</v>
@@ -1846,13 +1846,13 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>14</v>
@@ -1860,8 +1860,8 @@
       <c r="E28" s="4">
         <v>1</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>26</v>
+      <c r="F28" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>15</v>
@@ -1893,13 +1893,13 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>14</v>
@@ -1907,8 +1907,8 @@
       <c r="E29" s="4">
         <v>2</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>26</v>
+      <c r="F29" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>15</v>
@@ -1940,13 +1940,13 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>14</v>
@@ -1954,8 +1954,8 @@
       <c r="E30" s="4">
         <v>3</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>26</v>
+      <c r="F30" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>15</v>
@@ -1987,13 +1987,13 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>14</v>
@@ -2001,8 +2001,8 @@
       <c r="E31" s="4">
         <v>4</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>26</v>
+      <c r="F31" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>15</v>

--- a/IMPAcTB_Lung_Option1/IMPACTB_CFU_Op1_D14_Lung.xlsx
+++ b/IMPAcTB_Lung_Option1/IMPACTB_CFU_Op1_D14_Lung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/rstor-henao_lab/Pablo/CFU_Pipeline/IMPAcTB_Lung_Option1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62353D4B-D2BA-794B-906F-AB3581882EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727C0292-B9F2-4744-ABA0-0C5F20222009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10340" yWindow="1880" windowWidth="35980" windowHeight="26920" activeTab="1" xr2:uid="{F59B0FA3-6699-334F-9FE7-4CECDD57A869}"/>
+    <workbookView xWindow="14220" yWindow="1880" windowWidth="35980" windowHeight="26920" xr2:uid="{F59B0FA3-6699-334F-9FE7-4CECDD57A869}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="2" r:id="rId1"/>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2810B222-D20F-8B44-B4FD-974B94F13DA8}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88AD332-7195-634D-949D-2F0C3306A537}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
